--- a/Обрабатываемые/Опросный лист ОЖ.xlsx
+++ b/Обрабатываемые/Опросный лист ОЖ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geg\Desktop\Новая папка\Обрабатываемые.Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geg\Desktop\Новая папка\Обрабатываемые\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9000" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="6000" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Категории событий" sheetId="9" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2549,6 +2549,9 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2563,9 +2566,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2624,6 +2624,11 @@
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2670,7 +2675,28 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9797"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9797"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9797"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3853,29 +3879,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Ключ_выр" displayName="Ключ_выр" ref="A4:D334" totalsRowShown="0" headerRowDxfId="66" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Ключ_выр" displayName="Ключ_выр" ref="A4:D334" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="A4:D334"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="№ К п.п." dataDxfId="64"/>
-    <tableColumn id="2" name="Категория события" dataDxfId="63"/>
-    <tableColumn id="3" name="№ В п.п." dataDxfId="62"/>
-    <tableColumn id="4" name="Ключевое выражение" dataDxfId="61"/>
+    <tableColumn id="1" name="№ К п.п." dataDxfId="67"/>
+    <tableColumn id="2" name="Категория события" dataDxfId="66"/>
+    <tableColumn id="3" name="№ В п.п." dataDxfId="65"/>
+    <tableColumn id="4" name="Ключевое выражение" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ДП" displayName="ДП" ref="A5:K7" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ДП" displayName="ДП" ref="A5:K7" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
   <autoFilter ref="A5:K7"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="№" dataDxfId="52">
+    <tableColumn id="1" name="№" dataDxfId="55">
       <calculatedColumnFormula>IFERROR(A5+1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Организация" dataDxfId="51"/>
-    <tableColumn id="6" name="Подразделение" dataDxfId="50"/>
-    <tableColumn id="2" name="ФИО" dataDxfId="49"/>
-    <tableColumn id="11" name="Столбец1" dataDxfId="48">
+    <tableColumn id="5" name="Организация" dataDxfId="54"/>
+    <tableColumn id="6" name="Подразделение" dataDxfId="53"/>
+    <tableColumn id="2" name="ФИО" dataDxfId="52"/>
+    <tableColumn id="11" name="Столбец1" dataDxfId="51">
       <calculatedColumnFormula>IF(ISERR(SEARCH(".",D6)),
                              IF(LEN(TRIM(D6))-LEN(SUBSTITUTE(TRIM(D6)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D6,FIND(" ",D6)-1))&gt;=2,
@@ -3886,28 +3912,28 @@
                               FALSE),
                 FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Учетная запись в MS AD" dataDxfId="47"/>
-    <tableColumn id="4" name="Должность" dataDxfId="46"/>
-    <tableColumn id="7" name="Мобильный телефон*" dataDxfId="45"/>
-    <tableColumn id="8" name="Электронная почта*" dataDxfId="44"/>
-    <tableColumn id="3" name="Роль в дежурной смене" dataDxfId="43"/>
-    <tableColumn id="10" name="Работа в смене" dataDxfId="42"/>
+    <tableColumn id="9" name="Учетная запись в MS AD" dataDxfId="50"/>
+    <tableColumn id="4" name="Должность" dataDxfId="49"/>
+    <tableColumn id="7" name="Мобильный телефон*" dataDxfId="48"/>
+    <tableColumn id="8" name="Электронная почта*" dataDxfId="47"/>
+    <tableColumn id="3" name="Роль в дежурной смене" dataDxfId="46"/>
+    <tableColumn id="10" name="Работа в смене" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Рук" displayName="Рук" ref="A5:I7" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Рук" displayName="Рук" ref="A5:I7" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="A5:I7"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="№" dataDxfId="33">
+    <tableColumn id="1" name="№" dataDxfId="36">
       <calculatedColumnFormula>IFERROR(A5+1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Организация" dataDxfId="32"/>
-    <tableColumn id="3" name="Подразделение" dataDxfId="31"/>
-    <tableColumn id="4" name="ФИО" dataDxfId="30"/>
-    <tableColumn id="5" name="Столбец1" dataDxfId="29">
+    <tableColumn id="2" name="Организация" dataDxfId="35"/>
+    <tableColumn id="3" name="Подразделение" dataDxfId="34"/>
+    <tableColumn id="4" name="ФИО" dataDxfId="33"/>
+    <tableColumn id="5" name="Столбец1" dataDxfId="32">
       <calculatedColumnFormula>IF(ISERR(SEARCH(".",D6)),
                              IF(LEN(TRIM(D6))-LEN(SUBSTITUTE(TRIM(D6)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D6,FIND(" ",D6)-1))&gt;=2,
@@ -3918,26 +3944,26 @@
                               FALSE),
                 FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Учетная запись в MS AD" dataDxfId="28"/>
-    <tableColumn id="6" name="Должность" dataDxfId="27"/>
-    <tableColumn id="7" name="Мобильный телефон*" dataDxfId="26"/>
-    <tableColumn id="8" name="Электронная почта*" dataDxfId="25"/>
+    <tableColumn id="11" name="Учетная запись в MS AD" dataDxfId="31"/>
+    <tableColumn id="6" name="Должность" dataDxfId="30"/>
+    <tableColumn id="7" name="Мобильный телефон*" dataDxfId="29"/>
+    <tableColumn id="8" name="Электронная почта*" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Проч_персон" displayName="Проч_персон" ref="A5:I7" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A5:I7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Проч_персон" displayName="Проч_персон" ref="A5:I8" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="A5:I8"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="№" dataDxfId="16">
+    <tableColumn id="1" name="№" dataDxfId="19">
       <calculatedColumnFormula>IFERROR(A5+1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Организация" dataDxfId="15"/>
-    <tableColumn id="3" name="Подразделение" dataDxfId="14"/>
-    <tableColumn id="4" name="ФИО" dataDxfId="13"/>
-    <tableColumn id="6" name="Столбец1" dataDxfId="12">
+    <tableColumn id="2" name="Организация" dataDxfId="18"/>
+    <tableColumn id="3" name="Подразделение" dataDxfId="17"/>
+    <tableColumn id="4" name="ФИО" dataDxfId="16"/>
+    <tableColumn id="6" name="Столбец1" dataDxfId="15">
       <calculatedColumnFormula>IF(ISERR(SEARCH(".",D6)),
                              IF(LEN(TRIM(D6))-LEN(SUBSTITUTE(TRIM(D6)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D6,FIND(" ",D6)-1))&gt;=2,
@@ -3948,17 +3974,17 @@
                               FALSE),
                 FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Учетная запись в MS AD" dataDxfId="11"/>
-    <tableColumn id="8" name="Должность" dataDxfId="10"/>
-    <tableColumn id="9" name="Мобильный телефон*" dataDxfId="9"/>
-    <tableColumn id="5" name="Электронная почта*" dataDxfId="8"/>
+    <tableColumn id="11" name="Учетная запись в MS AD" dataDxfId="14"/>
+    <tableColumn id="8" name="Должность" dataDxfId="13"/>
+    <tableColumn id="9" name="Мобильный телефон*" dataDxfId="12"/>
+    <tableColumn id="5" name="Электронная почта*" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Сторон" displayName="Сторон" ref="A2:F4" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Сторон10" displayName="Сторон10" ref="A2:F4" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A2:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="№">
@@ -3967,7 +3993,7 @@
     <tableColumn id="2" name="Организация"/>
     <tableColumn id="3" name="Подразделение"/>
     <tableColumn id="4" name="ФИО"/>
-    <tableColumn id="5" name="Столбец1" dataDxfId="0">
+    <tableColumn id="5" name="Столбец1" dataDxfId="3">
       <calculatedColumnFormula>IF(ISERR(SEARCH(".",D3)),
                              IF(LEN(TRIM(D3))-LEN(SUBSTITUTE(TRIM(D3)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D3,FIND(" ",D3)-1))&gt;=2,
@@ -4262,20 +4288,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4292,10 +4318,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
-        <v>1</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="60">
+        <v>1</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="12">
@@ -4306,8 +4332,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="12">
         <v>2</v>
       </c>
@@ -4316,8 +4342,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="12">
         <v>3</v>
       </c>
@@ -4326,8 +4352,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="12">
         <v>4</v>
       </c>
@@ -4336,8 +4362,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="12">
         <v>5</v>
       </c>
@@ -4346,8 +4372,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="12">
         <v>6</v>
       </c>
@@ -4356,8 +4382,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="12">
         <v>7</v>
       </c>
@@ -4366,8 +4392,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="12">
         <v>8</v>
       </c>
@@ -4376,10 +4402,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="65">
+      <c r="A12" s="60">
         <v>2</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="60" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="12">
@@ -4390,8 +4416,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="12">
         <v>2</v>
       </c>
@@ -4414,10 +4440,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
+      <c r="A15" s="60">
         <v>4</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="60" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="12">
@@ -4428,8 +4454,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="12">
         <v>2</v>
       </c>
@@ -4438,8 +4464,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="12">
         <v>3</v>
       </c>
@@ -4448,8 +4474,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="12">
         <v>4</v>
       </c>
@@ -4458,8 +4484,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="12">
         <v>5</v>
       </c>
@@ -4468,8 +4494,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="12">
         <v>6</v>
       </c>
@@ -4478,8 +4504,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="12">
         <v>7</v>
       </c>
@@ -4488,8 +4514,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="12">
         <v>8</v>
       </c>
@@ -4498,10 +4524,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="65">
+      <c r="A23" s="60">
         <v>5</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="60" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="12">
@@ -4512,8 +4538,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="12">
         <v>2</v>
       </c>
@@ -4522,8 +4548,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="12">
         <v>3</v>
       </c>
@@ -4532,8 +4558,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="12">
         <v>4</v>
       </c>
@@ -4542,8 +4568,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="12">
         <v>5</v>
       </c>
@@ -4552,8 +4578,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="12">
         <v>6</v>
       </c>
@@ -4562,8 +4588,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="12">
         <v>7</v>
       </c>
@@ -4572,8 +4598,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="12">
         <v>8</v>
       </c>
@@ -4582,8 +4608,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="12">
         <v>9</v>
       </c>
@@ -4592,10 +4618,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="65">
+      <c r="A32" s="60">
         <v>6</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="60" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="12">
@@ -4606,8 +4632,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="12">
         <v>2</v>
       </c>
@@ -4616,8 +4642,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="12">
         <v>3</v>
       </c>
@@ -4626,8 +4652,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="12">
         <v>4</v>
       </c>
@@ -4636,8 +4662,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="12">
         <v>5</v>
       </c>
@@ -4646,8 +4672,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="12">
         <v>6</v>
       </c>
@@ -4656,8 +4682,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="12">
         <v>7</v>
       </c>
@@ -4666,8 +4692,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="12">
         <v>8</v>
       </c>
@@ -4676,8 +4702,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="12">
         <v>9</v>
       </c>
@@ -4686,8 +4712,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="12">
         <v>10</v>
       </c>
@@ -4696,8 +4722,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="12">
         <v>11</v>
       </c>
@@ -4706,8 +4732,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="12">
         <v>12</v>
       </c>
@@ -4716,8 +4742,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="12">
         <v>13</v>
       </c>
@@ -4726,8 +4752,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="12">
         <v>14</v>
       </c>
@@ -4736,8 +4762,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="12">
         <v>15</v>
       </c>
@@ -4746,10 +4772,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="65">
+      <c r="A47" s="60">
         <v>7</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="60" t="s">
         <v>398</v>
       </c>
       <c r="C47" s="12">
@@ -4760,8 +4786,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="12">
         <v>2</v>
       </c>
@@ -4770,8 +4796,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="12">
         <v>3</v>
       </c>
@@ -4780,8 +4806,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="12">
         <v>4</v>
       </c>
@@ -4790,8 +4816,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="12">
         <v>5</v>
       </c>
@@ -4800,8 +4826,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="12">
         <v>6</v>
       </c>
@@ -4810,8 +4836,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="12">
         <v>7</v>
       </c>
@@ -4820,8 +4846,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="12">
         <v>8</v>
       </c>
@@ -4830,8 +4856,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="12">
         <v>9</v>
       </c>
@@ -4840,8 +4866,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="12">
         <v>10</v>
       </c>
@@ -4850,8 +4876,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="12">
         <v>11</v>
       </c>
@@ -4860,8 +4886,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="12">
         <v>12</v>
       </c>
@@ -4870,8 +4896,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="12">
         <v>13</v>
       </c>
@@ -4880,8 +4906,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
       <c r="C60" s="12">
         <v>14</v>
       </c>
@@ -4890,8 +4916,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="12">
         <v>15</v>
       </c>
@@ -4900,8 +4926,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="12">
         <v>16</v>
       </c>
@@ -4911,6 +4937,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="B32:B46"/>
     <mergeCell ref="A47:A62"/>
     <mergeCell ref="B47:B62"/>
     <mergeCell ref="A4:A11"/>
@@ -4919,12 +4951,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="B15:B22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="B32:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4948,11 +4974,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>439</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10419,7 +10445,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10587,20 +10613,20 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="duplicateValues" dxfId="60" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="containsBlanks" dxfId="59" priority="3">
+    <cfRule type="containsBlanks" dxfId="62" priority="3">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="containsBlanks" dxfId="58" priority="2">
+    <cfRule type="containsBlanks" dxfId="61" priority="2">
       <formula>LEN(TRIM(B6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="containsBlanks" dxfId="57" priority="1">
+    <cfRule type="containsBlanks" dxfId="60" priority="1">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10631,7 +10657,7 @@
   <dimension ref="A1:I1307"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10879,23 +10905,23 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="41" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="containsBlanks" dxfId="39" priority="3">
+    <cfRule type="containsBlanks" dxfId="42" priority="3">
       <formula>LEN(TRIM(B6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="containsBlanks" dxfId="38" priority="2">
+    <cfRule type="containsBlanks" dxfId="41" priority="2">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="containsBlanks" dxfId="37" priority="1">
+    <cfRule type="containsBlanks" dxfId="40" priority="1">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10925,8 +10951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1295"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11058,6 +11084,33 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="85">
+        <f>IFERROR(A7+1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87" t="b">
+        <f>IF(ISERR(SEARCH(".",D8)),
+                             IF(LEN(TRIM(D8))-LEN(SUBSTITUTE(TRIM(D8)," ",""))&gt;=2,
+                                          IF(LEN(LEFT(D8,FIND(" ",D8)-1))&gt;=2,
+                                                       IF((LEN(LEFT(D8,SEARCH(" ",D8,SEARCH(" ",D8)+1)-1))-LEN(LEFT(D8,FIND(" ",D8)-1))-1)&gt;=2,
+                                                                      IF(LEN(MID(D8,FIND(" ",D8,FIND(" ",D8)+1)+1,500))&gt;=2,TRUE,FALSE),
+                                                       FALSE),
+                                          FALSE),
+                              FALSE),
+                FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86">
+        <v>3</v>
+      </c>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+    </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="58"/>
     </row>
@@ -11174,34 +11227,34 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="containsBlanks" dxfId="22" priority="3">
+  <conditionalFormatting sqref="B6:B8">
+    <cfRule type="containsBlanks" dxfId="25" priority="3">
       <formula>LEN(TRIM(B6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7">
-    <cfRule type="containsBlanks" dxfId="21" priority="2">
+  <conditionalFormatting sqref="C6:C8">
+    <cfRule type="containsBlanks" dxfId="24" priority="2">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F7">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+  <conditionalFormatting sqref="F6:F8">
+    <cfRule type="containsBlanks" dxfId="23" priority="1">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат данных" error="Введите данных в формате &quot;Фамилия Имя Отчество&quot;" promptTitle="Формат данных" prompt="&quot;Фамилия Имя Отчество&quot;" sqref="D6:D7">
+    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат данных" error="Введите данных в формате &quot;Фамилия Имя Отчество&quot;" promptTitle="Формат данных" prompt="&quot;Фамилия Имя Отчество&quot;" sqref="D6:D8">
       <formula1>E6</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть уникальным и заполненым" prompt="Обязательное для заполнения." sqref="F6:F7">
+    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть уникальным и заполненым" prompt="Обязательное для заполнения." sqref="F6:F8">
       <formula1>AND(ISNA(MATCH(F6,$F$5:F5,0)),LEN(F6)&gt;=1)</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="information" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть заполнено" prompt="Обязательное для заполнения." sqref="B6:C7">
+    <dataValidation type="textLength" errorStyle="information" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть заполнено" prompt="Обязательное для заполнения." sqref="B6:C8">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -11219,8 +11272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11320,13 +11373,13 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C4">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Обрабатываемые/Опросный лист ОЖ.xlsx
+++ b/Обрабатываемые/Опросный лист ОЖ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geg\Desktop\Новая папка\Обрабатываемые\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geg\Desktop\obrabotka_ol\Обрабатываемые\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="6000" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="6000" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Категории событий" sheetId="9" r:id="rId1"/>
@@ -25,12 +25,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Условия объектов категорий'!$A$3:$C$54</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="553">
   <si>
     <t>Должность</t>
   </si>
@@ -1425,12 +1425,328 @@
   <si>
     <t>Столбец1</t>
   </si>
+  <si>
+    <t>Гулин Е.Б.</t>
+  </si>
+  <si>
+    <t>Тихомиров Н.А.</t>
+  </si>
+  <si>
+    <t>Ростов Р.О.</t>
+  </si>
+  <si>
+    <t>Баринов А.С.</t>
+  </si>
+  <si>
+    <t>Зорин М.П.</t>
+  </si>
+  <si>
+    <t>Касаткин Е.А.</t>
+  </si>
+  <si>
+    <t>Тимофеев А.Н.</t>
+  </si>
+  <si>
+    <t>Габдрахманов Э.А.</t>
+  </si>
+  <si>
+    <t>Агальцов В.С.</t>
+  </si>
+  <si>
+    <t>Сальков А.Н.</t>
+  </si>
+  <si>
+    <t>Чеботарева Н.И.</t>
+  </si>
+  <si>
+    <t>Сизинцева Л.Г.</t>
+  </si>
+  <si>
+    <t>Виттих В.В.</t>
+  </si>
+  <si>
+    <t>Кравченко М.М.</t>
+  </si>
+  <si>
+    <t>Ширшов Д.А.</t>
+  </si>
+  <si>
+    <t>Гаврилюк Е.Э.</t>
+  </si>
+  <si>
+    <t>Петрухин С.А.</t>
+  </si>
+  <si>
+    <t>Демина Е.Ю.</t>
+  </si>
+  <si>
+    <t>ТЭЦ-27</t>
+  </si>
+  <si>
+    <t>Блок главного инженера ТЭЦ-27</t>
+  </si>
+  <si>
+    <t>Управление оперативной эксплуатации</t>
+  </si>
+  <si>
+    <t>Управление технологии</t>
+  </si>
+  <si>
+    <t>Электротехническая служба</t>
+  </si>
+  <si>
+    <t>Электротехническая лаборатория</t>
+  </si>
+  <si>
+    <t>Теплотехническая служба</t>
+  </si>
+  <si>
+    <t>Служба автоматизации и контроля</t>
+  </si>
+  <si>
+    <t>Группа автоматизированных систем упр-я</t>
+  </si>
+  <si>
+    <t>Химическая служба</t>
+  </si>
+  <si>
+    <t>Химическая лаборатория</t>
+  </si>
+  <si>
+    <t>Группа начальников смены станции</t>
+  </si>
+  <si>
+    <t>Служба совершенствования эксплуатации</t>
+  </si>
+  <si>
+    <t>Служба производственного контроля</t>
+  </si>
+  <si>
+    <t>Главный инженер</t>
+  </si>
+  <si>
+    <t>ЗГИ, НУОЭ</t>
+  </si>
+  <si>
+    <t>ЗГИ, НУТ</t>
+  </si>
+  <si>
+    <t>ЗН ЭТС</t>
+  </si>
+  <si>
+    <t>НЭТЛ</t>
+  </si>
+  <si>
+    <t>НТС</t>
+  </si>
+  <si>
+    <t>ЗН ТС</t>
+  </si>
+  <si>
+    <t>НСАиК</t>
+  </si>
+  <si>
+    <t>Рук. гр. АСУ</t>
+  </si>
+  <si>
+    <t>НХС</t>
+  </si>
+  <si>
+    <t>НХЛ</t>
+  </si>
+  <si>
+    <t>Ст.НСС</t>
+  </si>
+  <si>
+    <t>ЗН ССЭ</t>
+  </si>
+  <si>
+    <t>ГС ССЭ</t>
+  </si>
+  <si>
+    <t>НССЭ</t>
+  </si>
+  <si>
+    <t>НСПК</t>
+  </si>
+  <si>
+    <t>GulinEB</t>
+  </si>
+  <si>
+    <t>TikhomirovNA</t>
+  </si>
+  <si>
+    <t>RostovRO</t>
+  </si>
+  <si>
+    <t>BarinovAS</t>
+  </si>
+  <si>
+    <t>ZorinMP</t>
+  </si>
+  <si>
+    <t>KasatkinEA</t>
+  </si>
+  <si>
+    <t>TimofeevAN</t>
+  </si>
+  <si>
+    <t>GabdrahmanovEA</t>
+  </si>
+  <si>
+    <t>AgalcovVS</t>
+  </si>
+  <si>
+    <t>SalkovAN</t>
+  </si>
+  <si>
+    <t>ChebotarevaNI</t>
+  </si>
+  <si>
+    <t>SizintsevaLG</t>
+  </si>
+  <si>
+    <t>VittikhVV</t>
+  </si>
+  <si>
+    <t>KravchenkoMM</t>
+  </si>
+  <si>
+    <t>ShirshovDA</t>
+  </si>
+  <si>
+    <t>GavrilyukEE</t>
+  </si>
+  <si>
+    <t>PetruhinSA</t>
+  </si>
+  <si>
+    <t>DeminaEY</t>
+  </si>
+  <si>
+    <t>Шлыков В.Е.</t>
+  </si>
+  <si>
+    <t>Трифонов А.В.</t>
+  </si>
+  <si>
+    <t>Данилкин Д.А.</t>
+  </si>
+  <si>
+    <t>Заманин В.А.</t>
+  </si>
+  <si>
+    <t>Сурков В.М.</t>
+  </si>
+  <si>
+    <t>Булынин А.А.</t>
+  </si>
+  <si>
+    <t>Хромов Л.Б.</t>
+  </si>
+  <si>
+    <t>Бродкин А.В.</t>
+  </si>
+  <si>
+    <t>Заместитель главного инженера, начальник управления</t>
+  </si>
+  <si>
+    <t>Заместитель начальника управления, начальник службы</t>
+  </si>
+  <si>
+    <t>Начальник ЭТС</t>
+  </si>
+  <si>
+    <t>Начальник САиК</t>
+  </si>
+  <si>
+    <t>Начальник ТС</t>
+  </si>
+  <si>
+    <t>Старший начальник смены электростанции</t>
+  </si>
+  <si>
+    <t>Блок главного инженера</t>
+  </si>
+  <si>
+    <t>ShlykovVE</t>
+  </si>
+  <si>
+    <t>TrifonovAV</t>
+  </si>
+  <si>
+    <t>DanilkinDA</t>
+  </si>
+  <si>
+    <t>ZamaninVA</t>
+  </si>
+  <si>
+    <t>SurkovVM</t>
+  </si>
+  <si>
+    <t>BulyninAA</t>
+  </si>
+  <si>
+    <t>KhromovLB</t>
+  </si>
+  <si>
+    <t>BrodkinAN</t>
+  </si>
+  <si>
+    <t>8 (915) 450-79-29</t>
+  </si>
+  <si>
+    <t>ShlykovVE@mosenergo.ru</t>
+  </si>
+  <si>
+    <t>8 (901) 931-02-68</t>
+  </si>
+  <si>
+    <t>TrifonovAV@mosenergo.ru</t>
+  </si>
+  <si>
+    <t>8 (916) 988-20-67</t>
+  </si>
+  <si>
+    <t>DanilkinDA@mosenergo.ru</t>
+  </si>
+  <si>
+    <t>8 (916) 037-01-98</t>
+  </si>
+  <si>
+    <t>ZamaninVA@mosenergo.ru</t>
+  </si>
+  <si>
+    <t>8(985) 973-28-49</t>
+  </si>
+  <si>
+    <t>SurkovVM@mosenergo.ru</t>
+  </si>
+  <si>
+    <t>8 (916) 704-50-47</t>
+  </si>
+  <si>
+    <t>BulyninAA@mosenergo.ru</t>
+  </si>
+  <si>
+    <t>8 (915) 285-22-27</t>
+  </si>
+  <si>
+    <t>KhromovLB@mosenergo.ru</t>
+  </si>
+  <si>
+    <t>8 (985)-478-47-37, 
+8 (985) 524 70750</t>
+  </si>
+  <si>
+    <t>BrodkinAN@mosenergo.ru</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1665,8 +1981,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1873,6 +2197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2400,7 +2730,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2539,9 +2869,6 @@
     <xf numFmtId="0" fontId="26" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2549,9 +2876,10 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2566,6 +2894,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2624,11 +2955,38 @@
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2675,7 +3033,174 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="73">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2696,6 +3221,154 @@
           <bgColor rgb="FFFF9797"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9797"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9797"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9797"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2779,161 +3452,7 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3108,117 +3627,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3879,29 +4288,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Ключ_выр" displayName="Ключ_выр" ref="A4:D334" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Ключ_выр" displayName="Ключ_выр" ref="A4:D334" totalsRowShown="0" headerRowDxfId="72" tableBorderDxfId="71">
   <autoFilter ref="A4:D334"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="№ К п.п." dataDxfId="67"/>
-    <tableColumn id="2" name="Категория события" dataDxfId="66"/>
-    <tableColumn id="3" name="№ В п.п." dataDxfId="65"/>
-    <tableColumn id="4" name="Ключевое выражение" dataDxfId="64"/>
+    <tableColumn id="1" name="№ К п.п." dataDxfId="70"/>
+    <tableColumn id="2" name="Категория события" dataDxfId="69"/>
+    <tableColumn id="3" name="№ В п.п." dataDxfId="68"/>
+    <tableColumn id="4" name="Ключевое выражение" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ДП" displayName="ДП" ref="A5:K7" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ДП" displayName="ДП" ref="A5:K7" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
   <autoFilter ref="A5:K7"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="№" dataDxfId="55">
+    <tableColumn id="1" name="№" dataDxfId="58">
       <calculatedColumnFormula>IFERROR(A5+1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Организация" dataDxfId="54"/>
-    <tableColumn id="6" name="Подразделение" dataDxfId="53"/>
-    <tableColumn id="2" name="ФИО" dataDxfId="52"/>
-    <tableColumn id="11" name="Столбец1" dataDxfId="51">
+    <tableColumn id="5" name="Организация" dataDxfId="57"/>
+    <tableColumn id="6" name="Подразделение" dataDxfId="56"/>
+    <tableColumn id="2" name="ФИО" dataDxfId="55"/>
+    <tableColumn id="11" name="Столбец1" dataDxfId="54">
       <calculatedColumnFormula>IF(ISERR(SEARCH(".",D6)),
                              IF(LEN(TRIM(D6))-LEN(SUBSTITUTE(TRIM(D6)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D6,FIND(" ",D6)-1))&gt;=2,
@@ -3912,28 +4321,28 @@
                               FALSE),
                 FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Учетная запись в MS AD" dataDxfId="50"/>
-    <tableColumn id="4" name="Должность" dataDxfId="49"/>
-    <tableColumn id="7" name="Мобильный телефон*" dataDxfId="48"/>
-    <tableColumn id="8" name="Электронная почта*" dataDxfId="47"/>
-    <tableColumn id="3" name="Роль в дежурной смене" dataDxfId="46"/>
-    <tableColumn id="10" name="Работа в смене" dataDxfId="45"/>
+    <tableColumn id="9" name="Учетная запись в MS AD" dataDxfId="53"/>
+    <tableColumn id="4" name="Должность" dataDxfId="52"/>
+    <tableColumn id="7" name="Мобильный телефон*" dataDxfId="51"/>
+    <tableColumn id="8" name="Электронная почта*" dataDxfId="50"/>
+    <tableColumn id="3" name="Роль в дежурной смене" dataDxfId="49"/>
+    <tableColumn id="10" name="Работа в смене" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Рук" displayName="Рук" ref="A5:I7" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
-  <autoFilter ref="A5:I7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Рук" displayName="Рук" ref="A5:I23" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
+  <autoFilter ref="A5:I23"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="№" dataDxfId="36">
+    <tableColumn id="1" name="№" dataDxfId="39">
       <calculatedColumnFormula>IFERROR(A5+1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Организация" dataDxfId="35"/>
-    <tableColumn id="3" name="Подразделение" dataDxfId="34"/>
-    <tableColumn id="4" name="ФИО" dataDxfId="33"/>
-    <tableColumn id="5" name="Столбец1" dataDxfId="32">
+    <tableColumn id="2" name="Организация" dataDxfId="13"/>
+    <tableColumn id="3" name="Подразделение" dataDxfId="12"/>
+    <tableColumn id="4" name="ФИО" dataDxfId="17"/>
+    <tableColumn id="5" name="Столбец1" dataDxfId="38">
       <calculatedColumnFormula>IF(ISERR(SEARCH(".",D6)),
                              IF(LEN(TRIM(D6))-LEN(SUBSTITUTE(TRIM(D6)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D6,FIND(" ",D6)-1))&gt;=2,
@@ -3944,26 +4353,26 @@
                               FALSE),
                 FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Учетная запись в MS AD" dataDxfId="31"/>
-    <tableColumn id="6" name="Должность" dataDxfId="30"/>
-    <tableColumn id="7" name="Мобильный телефон*" dataDxfId="29"/>
-    <tableColumn id="8" name="Электронная почта*" dataDxfId="28"/>
+    <tableColumn id="11" name="Учетная запись в MS AD" dataDxfId="10"/>
+    <tableColumn id="6" name="Должность" dataDxfId="11"/>
+    <tableColumn id="7" name="Мобильный телефон*" dataDxfId="37"/>
+    <tableColumn id="8" name="Электронная почта*" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Проч_персон" displayName="Проч_персон" ref="A5:I8" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
-  <autoFilter ref="A5:I8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Проч_персон" displayName="Проч_персон" ref="A5:I13" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="A5:I13"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="№" dataDxfId="19">
+    <tableColumn id="1" name="№" dataDxfId="27">
       <calculatedColumnFormula>IFERROR(A5+1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Организация" dataDxfId="18"/>
-    <tableColumn id="3" name="Подразделение" dataDxfId="17"/>
-    <tableColumn id="4" name="ФИО" dataDxfId="16"/>
-    <tableColumn id="6" name="Столбец1" dataDxfId="15">
+    <tableColumn id="2" name="Организация" dataDxfId="4"/>
+    <tableColumn id="3" name="Подразделение" dataDxfId="3"/>
+    <tableColumn id="4" name="ФИО" dataDxfId="9"/>
+    <tableColumn id="6" name="Столбец1" dataDxfId="26">
       <calculatedColumnFormula>IF(ISERR(SEARCH(".",D6)),
                              IF(LEN(TRIM(D6))-LEN(SUBSTITUTE(TRIM(D6)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D6,FIND(" ",D6)-1))&gt;=2,
@@ -3974,17 +4383,17 @@
                               FALSE),
                 FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Учетная запись в MS AD" dataDxfId="14"/>
-    <tableColumn id="8" name="Должность" dataDxfId="13"/>
-    <tableColumn id="9" name="Мобильный телефон*" dataDxfId="12"/>
-    <tableColumn id="5" name="Электронная почта*" dataDxfId="11"/>
+    <tableColumn id="11" name="Учетная запись в MS AD" dataDxfId="2"/>
+    <tableColumn id="8" name="Должность" dataDxfId="5"/>
+    <tableColumn id="9" name="Мобильный телефон*" dataDxfId="1"/>
+    <tableColumn id="5" name="Электронная почта*" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Сторон10" displayName="Сторон10" ref="A2:F4" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Сторон10" displayName="Сторон10" ref="A2:F4" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A2:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="№">
@@ -3993,7 +4402,7 @@
     <tableColumn id="2" name="Организация"/>
     <tableColumn id="3" name="Подразделение"/>
     <tableColumn id="4" name="ФИО"/>
-    <tableColumn id="5" name="Столбец1" dataDxfId="3">
+    <tableColumn id="5" name="Столбец1" dataDxfId="18">
       <calculatedColumnFormula>IF(ISERR(SEARCH(".",D3)),
                              IF(LEN(TRIM(D3))-LEN(SUBSTITUTE(TRIM(D3)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D3,FIND(" ",D3)-1))&gt;=2,
@@ -4318,10 +4727,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
+      <c r="A4" s="66">
         <v>1</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="12">
@@ -4332,8 +4741,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="12">
         <v>2</v>
       </c>
@@ -4342,8 +4751,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="12">
         <v>3</v>
       </c>
@@ -4352,8 +4761,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="12">
         <v>4</v>
       </c>
@@ -4362,8 +4771,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="12">
         <v>5</v>
       </c>
@@ -4372,8 +4781,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="12">
         <v>6</v>
       </c>
@@ -4382,8 +4791,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="12">
         <v>7</v>
       </c>
@@ -4392,8 +4801,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="12">
         <v>8</v>
       </c>
@@ -4402,10 +4811,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="60">
+      <c r="A12" s="66">
         <v>2</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="66" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="12">
@@ -4416,8 +4825,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="12">
         <v>2</v>
       </c>
@@ -4440,10 +4849,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="60">
+      <c r="A15" s="66">
         <v>4</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="66" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="12">
@@ -4454,8 +4863,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="12">
         <v>2</v>
       </c>
@@ -4464,8 +4873,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="12">
         <v>3</v>
       </c>
@@ -4474,8 +4883,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="12">
         <v>4</v>
       </c>
@@ -4484,8 +4893,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="12">
         <v>5</v>
       </c>
@@ -4494,8 +4903,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="12">
         <v>6</v>
       </c>
@@ -4504,8 +4913,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="12">
         <v>7</v>
       </c>
@@ -4514,8 +4923,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="12">
         <v>8</v>
       </c>
@@ -4524,10 +4933,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="60">
+      <c r="A23" s="66">
         <v>5</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="66" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="12">
@@ -4538,8 +4947,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="12">
         <v>2</v>
       </c>
@@ -4548,8 +4957,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="12">
         <v>3</v>
       </c>
@@ -4558,8 +4967,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="12">
         <v>4</v>
       </c>
@@ -4568,8 +4977,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="12">
         <v>5</v>
       </c>
@@ -4578,8 +4987,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="12">
         <v>6</v>
       </c>
@@ -4588,8 +4997,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="12">
         <v>7</v>
       </c>
@@ -4598,8 +5007,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="12">
         <v>8</v>
       </c>
@@ -4608,8 +5017,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="12">
         <v>9</v>
       </c>
@@ -4618,10 +5027,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="60">
+      <c r="A32" s="66">
         <v>6</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="66" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="12">
@@ -4632,8 +5041,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="12">
         <v>2</v>
       </c>
@@ -4642,8 +5051,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="12">
         <v>3</v>
       </c>
@@ -4652,8 +5061,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="12">
         <v>4</v>
       </c>
@@ -4662,8 +5071,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="12">
         <v>5</v>
       </c>
@@ -4672,8 +5081,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="12">
         <v>6</v>
       </c>
@@ -4682,8 +5091,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="12">
         <v>7</v>
       </c>
@@ -4692,8 +5101,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="12">
         <v>8</v>
       </c>
@@ -4702,8 +5111,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="12">
         <v>9</v>
       </c>
@@ -4712,8 +5121,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="12">
         <v>10</v>
       </c>
@@ -4722,8 +5131,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="12">
         <v>11</v>
       </c>
@@ -4732,8 +5141,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="12">
         <v>12</v>
       </c>
@@ -4742,8 +5151,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="12">
         <v>13</v>
       </c>
@@ -4752,8 +5161,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="12">
         <v>14</v>
       </c>
@@ -4762,8 +5171,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="12">
         <v>15</v>
       </c>
@@ -4772,10 +5181,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="60">
+      <c r="A47" s="66">
         <v>7</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="66" t="s">
         <v>398</v>
       </c>
       <c r="C47" s="12">
@@ -4786,8 +5195,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="12">
         <v>2</v>
       </c>
@@ -4796,8 +5205,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="12">
         <v>3</v>
       </c>
@@ -4806,8 +5215,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="12">
         <v>4</v>
       </c>
@@ -4816,8 +5225,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="12">
         <v>5</v>
       </c>
@@ -4826,8 +5235,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="12">
         <v>6</v>
       </c>
@@ -4836,8 +5245,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="12">
         <v>7</v>
       </c>
@@ -4846,8 +5255,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="12">
         <v>8</v>
       </c>
@@ -4856,8 +5265,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="12">
         <v>9</v>
       </c>
@@ -4866,8 +5275,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="60"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="12">
         <v>10</v>
       </c>
@@ -4876,8 +5285,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="12">
         <v>11</v>
       </c>
@@ -4886,8 +5295,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="12">
         <v>12</v>
       </c>
@@ -4896,8 +5305,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="12">
         <v>13</v>
       </c>
@@ -4906,8 +5315,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="12">
         <v>14</v>
       </c>
@@ -4916,8 +5325,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="12">
         <v>15</v>
       </c>
@@ -4926,8 +5335,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
       <c r="C62" s="12">
         <v>16</v>
       </c>
@@ -4937,12 +5346,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="B32:B46"/>
     <mergeCell ref="A47:A62"/>
     <mergeCell ref="B47:B62"/>
     <mergeCell ref="A4:A11"/>
@@ -4951,6 +5354,12 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="B15:B22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="B32:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4979,23 +5388,23 @@
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
-      <c r="D1" s="66"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -9660,18 +10069,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:3" ht="135.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>435</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -10258,11 +10667,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -10290,7 +10699,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="20">
@@ -10301,7 +10710,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="22">
         <v>2</v>
       </c>
@@ -10310,7 +10719,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="23">
         <v>3</v>
       </c>
@@ -10319,7 +10728,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="24">
         <v>4</v>
       </c>
@@ -10328,7 +10737,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="24">
         <v>5</v>
       </c>
@@ -10337,7 +10746,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="24">
         <v>6</v>
       </c>
@@ -10373,13 +10782,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -10464,19 +10873,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -10613,20 +11022,20 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="duplicateValues" dxfId="63" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="containsBlanks" dxfId="62" priority="3">
+    <cfRule type="containsBlanks" dxfId="65" priority="3">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7">
-    <cfRule type="containsBlanks" dxfId="61" priority="2">
+    <cfRule type="containsBlanks" dxfId="64" priority="2">
       <formula>LEN(TRIM(B6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="containsBlanks" dxfId="60" priority="1">
+    <cfRule type="containsBlanks" dxfId="63" priority="1">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10657,7 +11066,7 @@
   <dimension ref="A1:I1307"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F6" sqref="F6:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10674,17 +11083,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -10712,7 +11121,7 @@
       <c r="E5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="49" t="s">
@@ -10730,14 +11139,14 @@
         <f t="shared" ref="A6:A7" si="0">IFERROR(A5+1,0)</f>
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>441</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>442</v>
+      <c r="B6" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>448</v>
       </c>
       <c r="E6" s="55" t="b">
         <f>IF(ISERR(SEARCH(".",D6)),
@@ -10749,13 +11158,13 @@
                                           FALSE),
                               FALSE),
                 FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>496</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>480</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>445</v>
@@ -10769,9 +11178,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>468</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>449</v>
+      </c>
       <c r="E7" s="9" t="b">
         <f t="shared" ref="E7" si="1">IF(ISERR(SEARCH(".",D7)),
                              IF(LEN(TRIM(D7))-LEN(SUBSTITUTE(TRIM(D7)," ",""))&gt;=2,
@@ -10784,155 +11199,599 @@
                 FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="86" t="s">
+        <v>497</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>481</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="90">
+        <f t="shared" ref="A8:A23" si="2">IFERROR(A7+1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>469</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="E8" s="91" t="b">
+        <f t="shared" ref="E8:E23" si="3">IF(ISERR(SEARCH(".",D8)),
+                             IF(LEN(TRIM(D8))-LEN(SUBSTITUTE(TRIM(D8)," ",""))&gt;=2,
+                                          IF(LEN(LEFT(D8,FIND(" ",D8)-1))&gt;=2,
+                                                       IF((LEN(LEFT(D8,SEARCH(" ",D8,SEARCH(" ",D8)+1)-1))-LEN(LEFT(D8,FIND(" ",D8)-1))-1)&gt;=2,
+                                                                      IF(LEN(MID(D8,FIND(" ",D8,FIND(" ",D8)+1)+1,500))&gt;=2,TRUE,FALSE),
+                                                       FALSE),
+                                          FALSE),
+                              FALSE),
+                FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>498</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>482</v>
+      </c>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="90">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>470</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>499</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>483</v>
+      </c>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="90">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>471</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="92" t="s">
+        <v>500</v>
+      </c>
+      <c r="G10" s="88" t="s">
+        <v>484</v>
+      </c>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="90">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>501</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>485</v>
+      </c>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="90">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>454</v>
+      </c>
+      <c r="E12" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>502</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>486</v>
+      </c>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="90">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>455</v>
+      </c>
+      <c r="E13" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="86" t="s">
+        <v>503</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>486</v>
+      </c>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="90">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>473</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="86" t="s">
+        <v>504</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>487</v>
+      </c>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="90">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>474</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>457</v>
+      </c>
+      <c r="E15" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="86" t="s">
+        <v>505</v>
+      </c>
+      <c r="G15" s="88" t="s">
+        <v>488</v>
+      </c>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="90">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>458</v>
+      </c>
+      <c r="E16" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>506</v>
+      </c>
+      <c r="G16" s="88" t="s">
+        <v>489</v>
+      </c>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="90">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>459</v>
+      </c>
+      <c r="E17" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>507</v>
+      </c>
+      <c r="G17" s="88" t="s">
+        <v>490</v>
+      </c>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="90">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>460</v>
+      </c>
+      <c r="E18" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="93" t="s">
+        <v>508</v>
+      </c>
+      <c r="G18" s="88" t="s">
+        <v>491</v>
+      </c>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="90">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>461</v>
+      </c>
+      <c r="E19" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>509</v>
+      </c>
+      <c r="G19" s="88" t="s">
+        <v>492</v>
+      </c>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="90">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>462</v>
+      </c>
+      <c r="E20" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>510</v>
+      </c>
+      <c r="G20" s="88" t="s">
+        <v>492</v>
+      </c>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="90">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>463</v>
+      </c>
+      <c r="E21" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="86" t="s">
+        <v>511</v>
+      </c>
+      <c r="G21" s="88" t="s">
+        <v>493</v>
+      </c>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="90">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>464</v>
+      </c>
+      <c r="E22" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="86" t="s">
+        <v>512</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>494</v>
+      </c>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="90">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>479</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>465</v>
+      </c>
+      <c r="E23" s="91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="86" t="s">
+        <v>513</v>
+      </c>
+      <c r="G23" s="89" t="s">
+        <v>495</v>
+      </c>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+    </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
+      <c r="A53" s="57"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
+      <c r="A57" s="57"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
+      <c r="A84" s="57"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="58"/>
+      <c r="A130" s="57"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="58"/>
+      <c r="A174" s="57"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="58"/>
+      <c r="A177" s="57"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="58"/>
+      <c r="A221" s="57"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="58"/>
+      <c r="A305" s="57"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="58"/>
+      <c r="A318" s="57"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="58"/>
+      <c r="A341" s="57"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="58"/>
+      <c r="A380" s="57"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="58"/>
+      <c r="A391" s="57"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="58"/>
+      <c r="A487" s="57"/>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="58"/>
+      <c r="A506" s="57"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="58"/>
+      <c r="A515" s="57"/>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="58"/>
+      <c r="A530" s="57"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="58"/>
+      <c r="A653" s="57"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="58"/>
+      <c r="A687" s="57"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="58"/>
+      <c r="A732" s="57"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="58"/>
+      <c r="A777" s="57"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="58"/>
+      <c r="A813" s="57"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="58"/>
+      <c r="A817" s="57"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="58"/>
+      <c r="A845" s="57"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="58"/>
+      <c r="A899" s="57"/>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1012" s="58"/>
+      <c r="A1012" s="57"/>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1017" s="58"/>
+      <c r="A1017" s="57"/>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1035" s="58"/>
+      <c r="A1035" s="57"/>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1071" s="58"/>
+      <c r="A1071" s="57"/>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1087" s="58"/>
+      <c r="A1087" s="57"/>
     </row>
     <row r="1090" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F1090" s="58"/>
+      <c r="F1090" s="57"/>
     </row>
     <row r="1091" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F1091" s="58"/>
+      <c r="F1091" s="57"/>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1107" s="58"/>
+      <c r="A1107" s="57"/>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1195" s="58"/>
+      <c r="A1195" s="57"/>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F1207" s="58"/>
+      <c r="F1207" s="57"/>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1215" s="58"/>
+      <c r="A1215" s="57"/>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1280" s="58"/>
+      <c r="A1280" s="57"/>
     </row>
     <row r="1307" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F1307" s="58"/>
+      <c r="F1307" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="44" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="43" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7">
-    <cfRule type="containsBlanks" dxfId="42" priority="3">
+  <conditionalFormatting sqref="B6:B23">
+    <cfRule type="containsBlanks" dxfId="45" priority="3">
       <formula>LEN(TRIM(B6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7">
-    <cfRule type="containsBlanks" dxfId="41" priority="2">
+  <conditionalFormatting sqref="C6:C23">
+    <cfRule type="containsBlanks" dxfId="44" priority="2">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F7">
-    <cfRule type="containsBlanks" dxfId="40" priority="1">
+  <conditionalFormatting sqref="F6:F23">
+    <cfRule type="containsBlanks" dxfId="43" priority="1">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть уникальным и заполненым" prompt="Обязательное для заполнения." sqref="F6:F7">
+    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть уникальным и заполненым" prompt="Обязательное для заполнения." sqref="F6:F23">
       <formula1>AND(ISNA(MATCH(F6,$F$5:F5,0)),LEN(F6)&gt;=1)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат данных" error="Введите данных в формате &quot;Фамилия Имя Отчество&quot;" promptTitle="Формат данных" prompt="&quot;Фамилия Имя Отчество&quot;" sqref="D6:D7">
+    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат данных" error="Введите данных в формате &quot;Фамилия Имя Отчество&quot;" promptTitle="Формат данных" prompt="&quot;Фамилия Имя Отчество&quot;" sqref="D6:D23">
       <formula1>E6</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="information" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть заполнено" prompt="Обязательное для заполнения." sqref="B6:C7">
+    <dataValidation type="textLength" errorStyle="information" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть заполнено" prompt="Обязательное для заполнения." sqref="B6:C23">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -10952,7 +11811,7 @@
   <dimension ref="A1:I1295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10969,17 +11828,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -11007,7 +11866,7 @@
       <c r="E5" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="49" t="s">
@@ -11016,23 +11875,23 @@
       <c r="H5" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="51">
         <f t="shared" ref="A6:A7" si="0">IFERROR(A5+1,0)</f>
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>441</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>442</v>
+      <c r="B6" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>514</v>
       </c>
       <c r="E6" s="55" t="b">
         <f>IF(ISERR(SEARCH(".",D6)),
@@ -11044,29 +11903,35 @@
                                           FALSE),
                               FALSE),
                 FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>445</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>529</v>
+      </c>
+      <c r="G6" s="96" t="s">
+        <v>480</v>
+      </c>
+      <c r="H6" s="97" t="s">
+        <v>537</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>468</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>515</v>
+      </c>
       <c r="E7" s="9" t="b">
         <f t="shared" ref="E7" si="1">IF(ISERR(SEARCH(".",D7)),
                              IF(LEN(TRIM(D7))-LEN(SUBSTITUTE(TRIM(D7)," ",""))&gt;=2,
@@ -11079,20 +11944,34 @@
                 FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="85">
+      <c r="F7" s="96" t="s">
+        <v>530</v>
+      </c>
+      <c r="G7" s="94" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>539</v>
+      </c>
+      <c r="I7" s="98" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="59">
         <f>IFERROR(A7+1,0)</f>
         <v>2</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87" t="b">
+      <c r="B8" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>516</v>
+      </c>
+      <c r="E8" s="60" t="b">
         <f>IF(ISERR(SEARCH(".",D8)),
                              IF(LEN(TRIM(D8))-LEN(SUBSTITUTE(TRIM(D8)," ",""))&gt;=2,
                                           IF(LEN(LEFT(D8,FIND(" ",D8)-1))&gt;=2,
@@ -11104,166 +11983,341 @@
                 FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86">
+      <c r="F8" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>522</v>
+      </c>
+      <c r="H8" s="97" t="s">
+        <v>541</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="90">
+        <f t="shared" ref="A9:A13" si="2">IFERROR(A8+1,0)</f>
         <v>3</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
+      <c r="B9" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>478</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>517</v>
+      </c>
+      <c r="E9" s="95" t="b">
+        <f t="shared" ref="E9:E13" si="3">IF(ISERR(SEARCH(".",D9)),
+                             IF(LEN(TRIM(D9))-LEN(SUBSTITUTE(TRIM(D9)," ",""))&gt;=2,
+                                          IF(LEN(LEFT(D9,FIND(" ",D9)-1))&gt;=2,
+                                                       IF((LEN(LEFT(D9,SEARCH(" ",D9,SEARCH(" ",D9)+1)-1))-LEN(LEFT(D9,FIND(" ",D9)-1))-1)&gt;=2,
+                                                                      IF(LEN(MID(D9,FIND(" ",D9,FIND(" ",D9)+1)+1,500))&gt;=2,TRUE,FALSE),
+                                                       FALSE),
+                                          FALSE),
+                              FALSE),
+                FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>523</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>543</v>
+      </c>
+      <c r="I9" s="98" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="90">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>518</v>
+      </c>
+      <c r="E10" s="95" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="96" t="s">
+        <v>533</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>524</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>545</v>
+      </c>
+      <c r="I10" s="98" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="90">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>519</v>
+      </c>
+      <c r="E11" s="95" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="96" t="s">
+        <v>534</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>525</v>
+      </c>
+      <c r="H11" s="97" t="s">
+        <v>547</v>
+      </c>
+      <c r="I11" s="98" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="90">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>520</v>
+      </c>
+      <c r="E12" s="95" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>535</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="H12" s="97" t="s">
+        <v>549</v>
+      </c>
+      <c r="I12" s="98" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="90">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>521</v>
+      </c>
+      <c r="E13" s="95" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="96" t="s">
+        <v>536</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>527</v>
+      </c>
+      <c r="H13" s="99" t="s">
+        <v>551</v>
+      </c>
+      <c r="I13" s="98" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="57"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="57"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
+      <c r="A72" s="57"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="58"/>
+      <c r="A118" s="57"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="58"/>
+      <c r="A162" s="57"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="58"/>
+      <c r="A165" s="57"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="58"/>
+      <c r="A209" s="57"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="58"/>
+      <c r="A293" s="57"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="58"/>
+      <c r="A306" s="57"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="58"/>
+      <c r="A329" s="57"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="58"/>
+      <c r="A368" s="57"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="58"/>
+      <c r="A379" s="57"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="58"/>
+      <c r="A475" s="57"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="58"/>
+      <c r="A494" s="57"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="58"/>
+      <c r="A503" s="57"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="58"/>
+      <c r="A518" s="57"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="58"/>
+      <c r="A641" s="57"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="58"/>
+      <c r="A675" s="57"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="58"/>
+      <c r="A720" s="57"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="58"/>
+      <c r="A765" s="57"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801" s="58"/>
+      <c r="A801" s="57"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="58"/>
+      <c r="A805" s="57"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="58"/>
+      <c r="A833" s="57"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="58"/>
+      <c r="A887" s="57"/>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="58"/>
+      <c r="A1000" s="57"/>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005" s="58"/>
+      <c r="A1005" s="57"/>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1023" s="58"/>
+      <c r="A1023" s="57"/>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1059" s="58"/>
+      <c r="A1059" s="57"/>
     </row>
     <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1075" s="58"/>
+      <c r="A1075" s="57"/>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F1078" s="58"/>
+      <c r="F1078" s="57"/>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F1079" s="58"/>
+      <c r="F1079" s="57"/>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095" s="58"/>
+      <c r="A1095" s="57"/>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1183" s="58"/>
+      <c r="A1183" s="57"/>
     </row>
     <row r="1195" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F1195" s="58"/>
+      <c r="F1195" s="57"/>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1203" s="58"/>
+      <c r="A1203" s="57"/>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1268" s="58"/>
+      <c r="A1268" s="57"/>
     </row>
     <row r="1295" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F1295" s="58"/>
+      <c r="F1295" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B8">
-    <cfRule type="containsBlanks" dxfId="25" priority="3">
+  <conditionalFormatting sqref="B6:B13">
+    <cfRule type="containsBlanks" dxfId="33" priority="3">
       <formula>LEN(TRIM(B6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C8">
-    <cfRule type="containsBlanks" dxfId="24" priority="2">
+  <conditionalFormatting sqref="C6:C13">
+    <cfRule type="containsBlanks" dxfId="32" priority="2">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F8">
-    <cfRule type="containsBlanks" dxfId="23" priority="1">
+  <conditionalFormatting sqref="F6:F13">
+    <cfRule type="containsBlanks" dxfId="31" priority="1">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат данных" error="Введите данных в формате &quot;Фамилия Имя Отчество&quot;" promptTitle="Формат данных" prompt="&quot;Фамилия Имя Отчество&quot;" sqref="D6:D8">
+    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат данных" error="Введите данных в формате &quot;Фамилия Имя Отчество&quot;" promptTitle="Формат данных" prompt="&quot;Фамилия Имя Отчество&quot;" sqref="D6:D13">
       <formula1>E6</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть уникальным и заполненым" prompt="Обязательное для заполнения." sqref="F6:F8">
+    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть уникальным и заполненым" prompt="Обязательное для заполнения." sqref="F6:F13">
       <formula1>AND(ISNA(MATCH(F6,$F$5:F5,0)),LEN(F6)&gt;=1)</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="information" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть заполнено" prompt="Обязательное для заполнения." sqref="B6:C8">
+    <dataValidation type="textLength" errorStyle="information" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Неверный формат вводимых данных" error="Значение должно быть заполнено" prompt="Обязательное для заполнения." sqref="B6:C13">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1"/>
+    <hyperlink ref="I12" r:id="rId1"/>
+    <hyperlink ref="I11" r:id="rId2"/>
+    <hyperlink ref="I8" r:id="rId3"/>
+    <hyperlink ref="I10" r:id="rId4"/>
+    <hyperlink ref="I9" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I6" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11287,14 +12341,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
@@ -11312,7 +12366,7 @@
       <c r="E2" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="56" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11373,13 +12427,13 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C4">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="23" priority="1">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
